--- a/todo.xlsx
+++ b/todo.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="290" yWindow="550" windowWidth="18640" windowHeight="6740"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Feuille 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>Tâches</t>
   </si>
@@ -37,9 +40,6 @@
     <t>Liste animaux</t>
   </si>
   <si>
-    <t>Fiche (nom, pays, image, famille, cri)</t>
-  </si>
-  <si>
     <t>Jeu auditif</t>
   </si>
   <si>
@@ -64,27 +64,121 @@
     <t>getAllAnimals()</t>
   </si>
   <si>
-    <t>findByCriteria(text, categorie)</t>
-  </si>
-  <si>
     <t>findById(id)</t>
   </si>
   <si>
     <t>findQuizz() //4animaux, id</t>
+  </si>
+  <si>
+    <t>Fonctionnalite</t>
+  </si>
+  <si>
+    <t>FrontEnd</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t>Splash screen</t>
+  </si>
+  <si>
+    <t>design interface</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>creation formulaire (nom,mdp) bouton login</t>
+  </si>
+  <si>
+    <t>fonction User seLogger(nom,mdp)=&gt;get dans la table user where  nom et mdp=?</t>
+  </si>
+  <si>
+    <t>creation formulaire (nom,mdp) bouton s'inscrire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribue a </t>
+  </si>
+  <si>
+    <t>fonction User sinscrire(nom,mdp)=&gt; insert dans la tbale user</t>
+  </si>
+  <si>
+    <t>contrôle de valeur dans le setter de la classe user front</t>
+  </si>
+  <si>
+    <t>interface et design du menu (3 menus: decouverte des animaux, jeux, parametre)</t>
+  </si>
+  <si>
+    <t>formulaire de recherche en haut de la liste avec bouton rechercher</t>
+  </si>
+  <si>
+    <t>array fonction findAll(table)</t>
+  </si>
+  <si>
+    <t>fonction Animal[] findByCriteria(nomAnimal, idcategorie,idPays)</t>
+  </si>
+  <si>
+    <t>tableau/ modal liste des animaux avec image et nomAnimal avec lien vers fiche</t>
+  </si>
+  <si>
+    <t>Fiche (nom, pays, image, famille, cri,video, son)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recevoir id  et afficher fiche avec les details, design </t>
+  </si>
+  <si>
+    <t>fonction Animal[] findAll() dans la table animal</t>
+  </si>
+  <si>
+    <t>fonction Animal findById(idAnimal) dans la table animal</t>
+  </si>
+  <si>
+    <t>jeu(animal[3], indice,question)</t>
+  </si>
+  <si>
+    <t>fonction Jeu getJeu()=&gt; random(femelle,enfant), prendre 4animaux de la table animal mais verifier a chaque fois aue l'indice n'est pas encore pris, random des 4 pr la reponse ,former question)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">page avec formulaire 4images et son, question  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">page avec formulaire 4images et nomAnimal, question  </t>
+  </si>
+  <si>
+    <t>fonction sendNotif()</t>
+  </si>
+  <si>
+    <t>dynamiser na background , setColor(dark/light)</t>
+  </si>
+  <si>
+    <t>dynamiser na langue , setColor(dark/light)</t>
+  </si>
+  <si>
+    <t>bouton deconnexion dans parametre</t>
+  </si>
+  <si>
+    <t>fonction logout() =&gt;destroysession()</t>
+  </si>
+  <si>
+    <t>Tahiana</t>
+  </si>
+  <si>
+    <t>Zinah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -95,36 +189,40 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -314,146 +412,298 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="47.25"/>
+    <col min="2" max="2" width="47.26953125" customWidth="1"/>
+    <col min="3" max="3" width="54.6328125" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" customWidth="1"/>
+    <col min="5" max="5" width="53.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="1" t="s">
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="1" t="s">
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="1" t="s">
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="1" t="s">
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="1" t="s">
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="1" t="s">
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="1" t="s">
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="1" t="s">
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="1" t="s">
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="1" t="s">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20">
-      <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
     </row>
+    <row r="26" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/todo.xlsx
+++ b/todo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>Tâches</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Preference mode</t>
   </si>
   <si>
-    <t>Preference langue</t>
-  </si>
-  <si>
     <t>Deconnexion</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>dynamiser na background , setColor(dark/light)</t>
   </si>
   <si>
-    <t>dynamiser na langue , setColor(dark/light)</t>
-  </si>
-  <si>
     <t>bouton deconnexion dans parametre</t>
   </si>
   <si>
@@ -164,6 +158,21 @@
   </si>
   <si>
     <t>Zinah</t>
+  </si>
+  <si>
+    <t>Favoris</t>
+  </si>
+  <si>
+    <t>ajout favoris</t>
+  </si>
+  <si>
+    <t>fonction ajoutFavoris(idAnima, idUser)=&gt; insrtion table Favoris</t>
+  </si>
+  <si>
+    <t>liste des animaux favoris</t>
+  </si>
+  <si>
+    <t>fonction Animal[] getFavoris(idUser)</t>
   </si>
 </sst>
 </file>
@@ -422,10 +431,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -439,21 +448,21 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -461,13 +470,13 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -478,16 +487,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -495,22 +504,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -518,10 +527,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -534,19 +543,19 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -554,154 +563,175 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
       <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" t="s">
         <v>49</v>
       </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" t="s">
-        <v>48</v>
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
         <v>45</v>
       </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
